--- a/設計書_自宅.xlsx
+++ b/設計書_自宅.xlsx
@@ -8,9 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2429E3-3193-4CDA-B198-6E470753B93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB254D6-62C4-4332-93AD-5D73CF05B680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{C34C28CE-C7A8-4EF3-ADBA-17271815D1E2}"/>
   </bookViews>
   <sheets>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="164">
   <si>
     <t>Web版の画面</t>
     <rPh sb="3" eb="4">
@@ -1333,19 +1332,32 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クライアント側</t>
-    <rPh sb="6" eb="7">
-      <t>ガワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コントローラからの信号を受信</t>
     <rPh sb="9" eb="11">
       <t>シンゴウ</t>
     </rPh>
     <rPh sb="12" eb="14">
       <t>ジュシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアント画面</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラズパイ</t>
+  </si>
+  <si>
+    <t>通信関連の設計</t>
+    <rPh sb="0" eb="4">
+      <t>ツウシンカンレン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1682,7 +1694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1766,6 +1778,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1787,50 +1828,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1877,8 +1885,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6019241" y="3627345"/>
-          <a:ext cx="1104900" cy="1123949"/>
+          <a:off x="5902700" y="3560110"/>
+          <a:ext cx="1082488" cy="1101537"/>
           <a:chOff x="5724526" y="2114550"/>
           <a:chExt cx="1104900" cy="1123950"/>
         </a:xfrm>
@@ -4088,13 +4096,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
@@ -4158,13 +4166,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
@@ -4229,13 +4237,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>142873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
@@ -4299,13 +4307,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -4354,13 +4362,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4407,13 +4415,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4460,13 +4468,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4513,13 +4521,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4566,13 +4574,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4617,7 +4625,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
@@ -4672,13 +4680,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -4755,16 +4763,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4779,7 +4787,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1981200" y="5895975"/>
+          <a:off x="1971675" y="3286125"/>
           <a:ext cx="1257300" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4809,15 +4817,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4832,7 +4840,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1552575" y="6143625"/>
+          <a:off x="1533525" y="3067050"/>
           <a:ext cx="1562100" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4862,16 +4870,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>142873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4886,8 +4894,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="314326" y="1666874"/>
-          <a:ext cx="1657350" cy="1952626"/>
+          <a:off x="571501" y="1666873"/>
+          <a:ext cx="1657350" cy="3495677"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4936,13 +4944,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
@@ -4990,13 +4998,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>114154</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
@@ -5034,13 +5042,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -5088,14 +5096,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>6326</xdr:colOff>
+      <xdr:colOff>263501</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -5132,13 +5140,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -5200,16 +5208,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5220,12 +5228,15 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="1"/>
+          <a:endCxn id="16" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3857625" y="6353175"/>
-          <a:ext cx="0" cy="657225"/>
+          <a:off x="3943350" y="3505200"/>
+          <a:ext cx="0" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5253,16 +5264,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5277,7 +5288,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3114675" y="3876675"/>
+          <a:off x="3114675" y="3829050"/>
           <a:ext cx="1657349" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="can">
@@ -5337,16 +5348,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5357,12 +5368,15 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="0"/>
+          <a:endCxn id="18" idx="3"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3857625" y="7496175"/>
-          <a:ext cx="0" cy="657225"/>
+          <a:off x="3943350" y="4667250"/>
+          <a:ext cx="0" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5390,13 +5404,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -5468,7 +5482,15 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>定期的に機器の情報を取得</a:t>
+            <a:t>定期的に機器の情報を取得して</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>へ保存</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5477,13 +5499,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>219076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>223838</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
@@ -5533,13 +5555,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>105</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -5579,16 +5601,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5603,7 +5625,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1200150" y="6515100"/>
+          <a:off x="1200150" y="4953000"/>
           <a:ext cx="0" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5632,16 +5654,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>166481</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5664,7 +5686,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="638175" y="7143750"/>
+          <a:off x="638175" y="5581650"/>
           <a:ext cx="1071356" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5676,7 +5698,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -5731,13 +5753,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>3756</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>208481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>9528</xdr:rowOff>
@@ -5787,13 +5809,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>12146</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>19053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>143036</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>165</xdr:rowOff>
@@ -5831,13 +5853,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>57152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>200027</xdr:rowOff>
@@ -5899,7 +5921,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
@@ -5958,13 +5980,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>80964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>133351</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>180977</xdr:rowOff>
@@ -6014,13 +6036,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>60907</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>84655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>85727</xdr:rowOff>
@@ -6050,6 +6072,7 @@
           </a:avLst>
         </a:prstGeom>
         <a:ln>
+          <a:prstDash val="dash"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -6072,13 +6095,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>12146</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>95253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>143036</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>76365</xdr:rowOff>
@@ -6116,13 +6139,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>133352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>38102</xdr:rowOff>
@@ -6184,7 +6207,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -6239,7 +6262,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -6310,6 +6333,286 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>197100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F06E935-02AC-494F-74BC-B5EEA8E8EA93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="2133600"/>
+          <a:ext cx="1314450" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>カメラ映像</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>155825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39FFE52-91B2-C0CF-7059-0DA4BD89A0DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="2806700"/>
+          <a:ext cx="1314450" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>操作パネル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA2C32A6-0B7A-5247-5FA0-B0E0EDDBC039}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="3479800"/>
+          <a:ext cx="1314450" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>除雪機の状態表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE585267-E786-54A0-2426-87AB143283EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="4152900"/>
+          <a:ext cx="1314450" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コントローラ信号受信</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6578,10 +6881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AN34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA28" sqref="AA28"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
@@ -6794,26 +7094,26 @@
     </row>
     <row r="15" spans="2:40" ht="18" customHeight="1">
       <c r="B15" s="32"/>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="41">
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="54">
         <v>9999</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="J15" s="42" t="s">
+      <c r="H15" s="54"/>
+      <c r="J15" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="41">
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="54">
         <v>9999</v>
       </c>
-      <c r="O15" s="41"/>
+      <c r="O15" s="54"/>
       <c r="P15" s="33"/>
       <c r="R15" s="32"/>
       <c r="S15" s="4"/>
@@ -6822,22 +7122,22 @@
     </row>
     <row r="16" spans="2:40" ht="18" customHeight="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="J16" s="42" t="s">
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="J16" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
       <c r="P16" s="33"/>
       <c r="R16" s="32"/>
       <c r="S16" s="4"/>
@@ -6910,11 +7210,11 @@
         <v>1</v>
       </c>
       <c r="E21" s="27"/>
-      <c r="K21" s="45" t="s">
+      <c r="K21" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
       <c r="N21" s="6"/>
       <c r="P21" s="33"/>
       <c r="R21" s="32"/>
@@ -6931,17 +7231,17 @@
       <c r="E22" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="45" t="s">
+      <c r="I22" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="60"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="45" t="s">
+      <c r="M22" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
       <c r="P22" s="39"/>
       <c r="R22" s="32"/>
       <c r="S22" s="4"/>
@@ -6955,11 +7255,11 @@
         <v>4</v>
       </c>
       <c r="E23" s="27"/>
-      <c r="K23" s="45" t="s">
+      <c r="K23" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
       <c r="N23" s="1"/>
       <c r="P23" s="33"/>
       <c r="R23" s="32"/>
@@ -7117,17 +7417,17 @@
       <c r="C32" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="43">
+      <c r="D32" s="56">
         <v>9999</v>
       </c>
-      <c r="E32" s="43"/>
+      <c r="E32" s="56"/>
       <c r="K32" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="L32" s="44">
+      <c r="L32" s="57">
         <v>9999</v>
       </c>
-      <c r="M32" s="44"/>
+      <c r="M32" s="57"/>
       <c r="N32" s="33"/>
       <c r="R32" s="32"/>
       <c r="S32" s="4"/>
@@ -7139,17 +7439,17 @@
       <c r="C33" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="43">
+      <c r="D33" s="56">
         <v>9999</v>
       </c>
-      <c r="E33" s="43"/>
+      <c r="E33" s="56"/>
       <c r="K33" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="44">
+      <c r="L33" s="57">
         <v>9999</v>
       </c>
-      <c r="M33" s="44"/>
+      <c r="M33" s="57"/>
       <c r="N33" s="33"/>
       <c r="R33" s="32"/>
       <c r="S33" s="6"/>
@@ -7243,10 +7543,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -7267,13 +7564,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B1443F-003B-4831-AEA7-632D9B2CA444}">
-  <dimension ref="A2:AD136"/>
+  <dimension ref="A2:AD137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="1">
-      <selection activeCell="AB30" sqref="AB30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AW12" sqref="AW12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75"/>
@@ -7284,38 +7578,38 @@
   <sheetData>
     <row r="2" spans="1:3" ht="25.5">
       <c r="A2" s="40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="64" customFormat="1" ht="19.5">
-      <c r="A4" s="62" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="51" customFormat="1" ht="19.5">
+      <c r="A4" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="50" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="44" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="48"/>
+      <c r="C7" s="41"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="54" t="s">
-        <v>160</v>
+      <c r="C28" s="44" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="41" t="s">
         <v>26</v>
       </c>
       <c r="D29" t="s">
@@ -7323,7 +7617,7 @@
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="41" t="s">
         <v>26</v>
       </c>
       <c r="D30" t="s">
@@ -7331,7 +7625,7 @@
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="41" t="s">
         <v>26</v>
       </c>
       <c r="D31" t="s">
@@ -7339,338 +7633,330 @@
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="41" t="s">
         <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24">
-      <c r="B34" s="65" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="B34" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="C35" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="53" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:24">
-      <c r="C35" s="48" t="s">
+    <row r="36" spans="1:23">
+      <c r="D36" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E36" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
-      <c r="C36" s="48" t="s">
+    <row r="37" spans="1:23">
+      <c r="D37" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E37" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:24">
-      <c r="B38" s="65" t="s">
+    <row r="39" spans="1:23">
+      <c r="C39" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="54" t="s">
+      <c r="D39" s="44" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
-      <c r="C39" s="48" t="s">
+    <row r="40" spans="1:23">
+      <c r="D40" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E40" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:24" s="64" customFormat="1" ht="19.5">
-      <c r="A41" s="62" t="s">
+    <row r="42" spans="1:23" s="51" customFormat="1" ht="19.5">
+      <c r="A42" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="63" t="s">
+      <c r="B42" s="50" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
-      <c r="B43" s="54" t="s">
+    <row r="44" spans="1:23">
+      <c r="B44" s="44" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
-      <c r="C45" s="54" t="s">
+    <row r="46" spans="1:23">
+      <c r="C46" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="W45" s="54" t="s">
+      <c r="W46" s="44" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
-      <c r="D47" t="s">
+    <row r="48" spans="1:23">
+      <c r="D48" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:24">
-      <c r="D48" s="5"/>
-      <c r="E48" s="4"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="4"/>
-    </row>
-    <row r="49" spans="2:25">
+    <row r="49" spans="4:25">
       <c r="D49" s="5"/>
       <c r="E49" s="4"/>
-      <c r="W49" t="s">
-        <v>103</v>
-      </c>
+      <c r="W49" s="5"/>
       <c r="X49" s="4"/>
     </row>
-    <row r="50" spans="2:25">
+    <row r="50" spans="4:25">
       <c r="D50" s="5"/>
       <c r="E50" s="4"/>
-      <c r="W50" s="5"/>
+      <c r="W50" t="s">
+        <v>103</v>
+      </c>
       <c r="X50" s="4"/>
     </row>
-    <row r="51" spans="2:25">
+    <row r="51" spans="4:25">
       <c r="D51" s="5"/>
       <c r="E51" s="4"/>
       <c r="W51" s="5"/>
-      <c r="X51" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="52" spans="2:25">
+      <c r="X51" s="4"/>
+    </row>
+    <row r="52" spans="4:25">
       <c r="D52" s="5"/>
       <c r="E52" s="4"/>
       <c r="W52" s="5"/>
-      <c r="X52" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="2:25">
+      <c r="X52" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="4:25">
       <c r="D53" s="5"/>
       <c r="E53" s="4"/>
       <c r="W53" s="5"/>
-      <c r="X53" s="58"/>
-    </row>
-    <row r="54" spans="2:25">
-      <c r="D54" s="5" t="s">
-        <v>111</v>
-      </c>
+      <c r="X53" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="4:25">
+      <c r="D54" s="5"/>
       <c r="E54" s="4"/>
       <c r="W54" s="5"/>
-      <c r="X54" s="4"/>
-    </row>
-    <row r="55" spans="2:25">
-      <c r="D55" s="5"/>
-      <c r="E55" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="X54" s="47"/>
+    </row>
+    <row r="55" spans="4:25">
+      <c r="D55" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="4"/>
       <c r="W55" s="5"/>
       <c r="X55" s="4"/>
     </row>
-    <row r="56" spans="2:25">
+    <row r="56" spans="4:25">
       <c r="D56" s="5"/>
-      <c r="E56" s="4"/>
-      <c r="F56" t="s">
-        <v>101</v>
+      <c r="E56" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="W56" s="5"/>
       <c r="X56" s="4"/>
     </row>
-    <row r="57" spans="2:25">
+    <row r="57" spans="4:25">
       <c r="D57" s="5"/>
-      <c r="E57" s="4" t="s">
-        <v>108</v>
+      <c r="E57" s="4"/>
+      <c r="F57" t="s">
+        <v>101</v>
       </c>
       <c r="W57" s="5"/>
       <c r="X57" s="4"/>
     </row>
-    <row r="58" spans="2:25">
+    <row r="58" spans="4:25">
       <c r="D58" s="5"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="G58" t="s">
-        <v>100</v>
+      <c r="E58" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="W58" s="5"/>
       <c r="X58" s="4"/>
     </row>
-    <row r="59" spans="2:25">
+    <row r="59" spans="4:25">
       <c r="D59" s="5"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="57" t="s">
+      <c r="F59" s="46" t="s">
         <v>26</v>
       </c>
       <c r="G59" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="W59" s="5"/>
       <c r="X59" s="4"/>
     </row>
-    <row r="60" spans="2:25">
+    <row r="60" spans="4:25">
       <c r="D60" s="5"/>
       <c r="E60" s="4"/>
-      <c r="H60" t="s">
-        <v>105</v>
+      <c r="F60" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" t="s">
+        <v>104</v>
       </c>
       <c r="W60" s="5"/>
       <c r="X60" s="4"/>
     </row>
-    <row r="61" spans="2:25">
+    <row r="61" spans="4:25">
       <c r="D61" s="5"/>
       <c r="E61" s="4"/>
       <c r="H61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W61" s="5"/>
       <c r="X61" s="4"/>
     </row>
-    <row r="62" spans="2:25">
+    <row r="62" spans="4:25">
       <c r="D62" s="5"/>
       <c r="E62" s="4"/>
+      <c r="H62" t="s">
+        <v>106</v>
+      </c>
       <c r="W62" s="5"/>
       <c r="X62" s="4"/>
     </row>
-    <row r="64" spans="2:25">
-      <c r="B64" s="54" t="s">
+    <row r="63" spans="4:25">
+      <c r="D63" s="5"/>
+      <c r="E63" s="4"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="4"/>
+    </row>
+    <row r="65" spans="2:29">
+      <c r="B65" s="44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="3:29">
-      <c r="C66" s="54" t="s">
+    <row r="67" spans="2:29">
+      <c r="C67" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="W66" s="54" t="s">
+      <c r="W67" s="44" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="3:29">
-      <c r="D68" t="s">
+    <row r="69" spans="2:29">
+      <c r="D69" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="3:29">
-      <c r="D69" s="5"/>
-      <c r="E69" t="s">
+    <row r="70" spans="2:29">
+      <c r="D70" s="5"/>
+      <c r="E70" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="3:29">
-      <c r="D70" s="5"/>
-      <c r="E70" s="4"/>
-      <c r="W70" s="5"/>
-      <c r="X70" s="4"/>
-    </row>
-    <row r="71" spans="3:29">
+    <row r="71" spans="2:29">
       <c r="D71" s="5"/>
       <c r="E71" s="4"/>
-      <c r="W71" t="s">
-        <v>120</v>
-      </c>
+      <c r="W71" s="5"/>
       <c r="X71" s="4"/>
     </row>
-    <row r="72" spans="3:29">
+    <row r="72" spans="2:29">
       <c r="D72" s="5"/>
       <c r="E72" s="4"/>
+      <c r="W72" t="s">
+        <v>120</v>
+      </c>
       <c r="X72" s="4"/>
-      <c r="Y72" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="73" spans="3:29">
+    </row>
+    <row r="73" spans="2:29">
       <c r="D73" s="5"/>
       <c r="E73" s="4"/>
-      <c r="W73" s="5"/>
       <c r="X73" s="4"/>
-      <c r="Y73" s="56"/>
-      <c r="Z73" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="74" spans="3:29">
+      <c r="Y73" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29">
       <c r="D74" s="5"/>
       <c r="E74" s="4"/>
       <c r="W74" s="5"/>
       <c r="X74" s="4"/>
-      <c r="Y74" s="56"/>
-      <c r="AA74" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="3:29">
+      <c r="Z74" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29">
       <c r="D75" s="5"/>
       <c r="E75" s="4"/>
       <c r="W75" s="5"/>
-      <c r="X75" s="58"/>
-      <c r="Y75" s="60"/>
-      <c r="AB75" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC75" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="76" spans="3:29">
+      <c r="X75" s="4"/>
+      <c r="AA75" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29">
       <c r="D76" s="5"/>
       <c r="E76" s="4"/>
       <c r="W76" s="5"/>
-      <c r="X76" s="4"/>
-      <c r="Y76" s="56"/>
-      <c r="AA76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" spans="3:29">
+      <c r="X76" s="47"/>
+      <c r="Y76" s="46"/>
+      <c r="AB76" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29">
       <c r="D77" s="5"/>
       <c r="E77" s="4"/>
       <c r="W77" s="5"/>
       <c r="X77" s="4"/>
-      <c r="Y77" s="56"/>
-      <c r="AB77" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="78" spans="3:29">
+      <c r="AA77" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="2:29">
       <c r="D78" s="5"/>
       <c r="E78" s="4"/>
       <c r="W78" s="5"/>
       <c r="X78" s="4"/>
-      <c r="Y78" s="56"/>
-      <c r="AB78" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC78" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="79" spans="3:29">
+      <c r="AB78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29">
       <c r="D79" s="5"/>
       <c r="E79" s="4"/>
       <c r="W79" s="5"/>
       <c r="X79" s="4"/>
-      <c r="Y79" s="56"/>
-      <c r="AB79" s="48" t="s">
+      <c r="AB79" s="41" t="s">
         <v>25</v>
       </c>
       <c r="AC79" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="80" spans="3:29">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="2:29">
       <c r="D80" s="5"/>
       <c r="E80" s="4"/>
       <c r="W80" s="5"/>
       <c r="X80" s="4"/>
-      <c r="Y80" s="56"/>
-      <c r="AB80" t="s">
-        <v>130</v>
+      <c r="AB80" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="4:29">
@@ -7678,12 +7964,8 @@
       <c r="E81" s="4"/>
       <c r="W81" s="5"/>
       <c r="X81" s="4"/>
-      <c r="Y81" s="56"/>
-      <c r="AB81" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC81" t="s">
-        <v>131</v>
+      <c r="AB81" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="4:29">
@@ -7691,9 +7973,11 @@
       <c r="E82" s="4"/>
       <c r="W82" s="5"/>
       <c r="X82" s="4"/>
-      <c r="Y82" s="56"/>
-      <c r="AB82" t="s">
-        <v>30</v>
+      <c r="AB82" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="4:29">
@@ -7701,12 +7985,8 @@
       <c r="E83" s="4"/>
       <c r="W83" s="5"/>
       <c r="X83" s="4"/>
-      <c r="Y83" s="56"/>
-      <c r="AA83" s="48" t="s">
-        <v>26</v>
-      </c>
       <c r="AB83" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="4:29">
@@ -7714,430 +7994,423 @@
       <c r="E84" s="4"/>
       <c r="W84" s="5"/>
       <c r="X84" s="4"/>
-      <c r="Y84" s="56"/>
+      <c r="AA84" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="85" spans="4:29">
       <c r="D85" s="5"/>
       <c r="E85" s="4"/>
-      <c r="F85" s="57"/>
       <c r="W85" s="5"/>
       <c r="X85" s="4"/>
-      <c r="Y85" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC85" s="48"/>
     </row>
     <row r="86" spans="4:29">
       <c r="D86" s="5"/>
       <c r="E86" s="4"/>
-      <c r="F86" s="57"/>
+      <c r="F86" s="46"/>
       <c r="W86" s="5"/>
       <c r="X86" s="4"/>
-      <c r="Y86" s="56"/>
-      <c r="Z86" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA86" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC86" s="48"/>
+      <c r="Y86" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC86" s="41"/>
     </row>
     <row r="87" spans="4:29">
       <c r="D87" s="5"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="57"/>
+      <c r="F87" s="46"/>
       <c r="W87" s="5"/>
       <c r="X87" s="4"/>
-      <c r="Y87" s="56"/>
-      <c r="Z87" s="48" t="s">
+      <c r="Z87" s="41" t="s">
         <v>26</v>
       </c>
       <c r="AA87" t="s">
-        <v>137</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC87" s="41"/>
     </row>
     <row r="88" spans="4:29">
       <c r="D88" s="5"/>
       <c r="E88" s="4"/>
-      <c r="F88" s="57"/>
+      <c r="F88" s="46"/>
       <c r="W88" s="5"/>
       <c r="X88" s="4"/>
-      <c r="Y88" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC88" s="48"/>
+      <c r="Z88" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="89" spans="4:29">
       <c r="D89" s="5"/>
       <c r="E89" s="4"/>
-      <c r="F89" s="57"/>
+      <c r="F89" s="46"/>
       <c r="W89" s="5"/>
       <c r="X89" s="4"/>
-      <c r="Y89" s="56"/>
-      <c r="AC89" s="48"/>
+      <c r="Y89" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC89" s="41"/>
     </row>
     <row r="90" spans="4:29">
       <c r="D90" s="5"/>
       <c r="E90" s="4"/>
-      <c r="W90" s="5" t="s">
-        <v>123</v>
-      </c>
+      <c r="F90" s="46"/>
+      <c r="W90" s="5"/>
       <c r="X90" s="4"/>
+      <c r="AC90" s="41"/>
     </row>
     <row r="91" spans="4:29">
       <c r="D91" s="5"/>
       <c r="E91" s="4"/>
-      <c r="W91" s="5"/>
+      <c r="W91" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="X91" s="4"/>
     </row>
     <row r="92" spans="4:29">
-      <c r="D92" s="5" t="s">
-        <v>143</v>
-      </c>
+      <c r="D92" s="5"/>
       <c r="E92" s="4"/>
       <c r="W92" s="5"/>
       <c r="X92" s="4"/>
     </row>
     <row r="93" spans="4:29">
-      <c r="E93" t="s">
+      <c r="D93" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="W93" s="5"/>
+      <c r="X93" s="4"/>
+    </row>
+    <row r="94" spans="4:29">
+      <c r="E94" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="94" spans="4:29">
-      <c r="F94" s="61" t="s">
+    <row r="95" spans="4:29">
+      <c r="F95" s="48" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="4:29">
-      <c r="G95" s="48" t="s">
+    <row r="96" spans="4:29">
+      <c r="G96" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H96" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="96" spans="4:29">
-      <c r="E96" t="s">
+    <row r="97" spans="2:30">
+      <c r="E97" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="97" spans="2:30">
-      <c r="F97" s="48" t="s">
+    <row r="98" spans="2:30">
+      <c r="F98" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G98" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="2:30">
-      <c r="E98" t="s">
+    <row r="99" spans="2:30">
+      <c r="E99" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="2:30">
-      <c r="B100" s="54" t="s">
+    <row r="101" spans="2:30">
+      <c r="B101" s="44" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="2:30">
-      <c r="C102" s="54" t="s">
+    <row r="103" spans="2:30">
+      <c r="C103" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="W102" s="54" t="s">
+      <c r="W103" s="44" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="104" spans="2:30">
-      <c r="D104" s="5"/>
-      <c r="W104" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="105" spans="2:30">
       <c r="D105" s="5"/>
-      <c r="W105" s="5"/>
-      <c r="Y105" t="s">
-        <v>129</v>
+      <c r="W105" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="2:30">
       <c r="D106" s="5"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="57"/>
       <c r="W106" s="5"/>
-      <c r="X106" s="4"/>
-      <c r="Y106" s="56"/>
-      <c r="Z106" s="5" t="s">
-        <v>124</v>
+      <c r="Y106" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="2:30">
       <c r="D107" s="5"/>
       <c r="E107" s="4"/>
-      <c r="F107" s="57"/>
+      <c r="F107" s="46"/>
       <c r="W107" s="5"/>
       <c r="X107" s="4"/>
-      <c r="Y107" s="56"/>
-      <c r="AA107" t="s">
-        <v>125</v>
+      <c r="Z107" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="2:30">
       <c r="D108" s="5"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="57"/>
+      <c r="F108" s="46"/>
       <c r="W108" s="5"/>
       <c r="X108" s="4"/>
-      <c r="Y108" s="56"/>
-      <c r="AB108" t="s">
-        <v>129</v>
+      <c r="AA108" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="2:30">
       <c r="D109" s="5"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="57"/>
+      <c r="F109" s="46"/>
       <c r="W109" s="5"/>
       <c r="X109" s="4"/>
-      <c r="Y109" s="56"/>
-      <c r="AB109" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC109" t="s">
-        <v>128</v>
+      <c r="AB109" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="2:30">
       <c r="D110" s="5"/>
       <c r="E110" s="4"/>
-      <c r="F110" s="57"/>
+      <c r="F110" s="46"/>
       <c r="W110" s="5"/>
       <c r="X110" s="4"/>
-      <c r="Y110" s="56"/>
+      <c r="AB110" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="AC110" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="2:30">
       <c r="D111" s="5"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="57"/>
+      <c r="F111" s="46"/>
       <c r="W111" s="5"/>
       <c r="X111" s="4"/>
-      <c r="Y111" s="56"/>
-      <c r="AD111" t="s">
-        <v>127</v>
+      <c r="AC111" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="2:30">
       <c r="D112" s="5"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="57"/>
+      <c r="F112" s="46"/>
       <c r="W112" s="5"/>
       <c r="X112" s="4"/>
-      <c r="Y112" s="56"/>
       <c r="AD112" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="113" spans="4:29">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" spans="4:30">
       <c r="D113" s="5"/>
       <c r="E113" s="4"/>
-      <c r="F113" s="57"/>
+      <c r="F113" s="46"/>
       <c r="W113" s="5"/>
       <c r="X113" s="4"/>
-      <c r="Y113" s="56"/>
-      <c r="AB113" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC113" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="114" spans="4:29">
+      <c r="AD113" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="114" spans="4:30">
       <c r="D114" s="5"/>
       <c r="E114" s="4"/>
-      <c r="F114" s="57"/>
+      <c r="F114" s="46"/>
       <c r="W114" s="5"/>
       <c r="X114" s="4"/>
-      <c r="Y114" s="56"/>
-      <c r="AB114" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="115" spans="4:29">
+      <c r="AB114" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC114" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="115" spans="4:30">
       <c r="D115" s="5"/>
       <c r="E115" s="4"/>
-      <c r="F115" s="57"/>
+      <c r="F115" s="46"/>
       <c r="W115" s="5"/>
       <c r="X115" s="4"/>
-      <c r="Y115" s="56"/>
-      <c r="AB115" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="4:29">
+      <c r="AB115" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="116" spans="4:30">
       <c r="D116" s="5"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="57"/>
+      <c r="F116" s="46"/>
       <c r="W116" s="5"/>
       <c r="X116" s="4"/>
-      <c r="Y116" s="56"/>
-      <c r="AB116" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC116" s="48"/>
-    </row>
-    <row r="117" spans="4:29">
+      <c r="AB116" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC116" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="4:30">
       <c r="D117" s="5"/>
       <c r="E117" s="4"/>
-      <c r="F117" s="57"/>
+      <c r="F117" s="46"/>
       <c r="W117" s="5"/>
       <c r="X117" s="4"/>
-      <c r="Y117" s="56"/>
-      <c r="AB117" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC117" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="118" spans="4:29">
+      <c r="AB117" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC117" s="41"/>
+    </row>
+    <row r="118" spans="4:30">
       <c r="D118" s="5"/>
       <c r="E118" s="4"/>
-      <c r="F118" s="57"/>
+      <c r="F118" s="46"/>
       <c r="W118" s="5"/>
       <c r="X118" s="4"/>
-      <c r="Y118" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC118" s="48"/>
-    </row>
-    <row r="119" spans="4:29">
+      <c r="AB118" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC118" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="119" spans="4:30">
       <c r="D119" s="5"/>
       <c r="E119" s="4"/>
-      <c r="F119" s="57"/>
+      <c r="F119" s="46"/>
       <c r="W119" s="5"/>
       <c r="X119" s="4"/>
-      <c r="Y119" s="56"/>
-      <c r="Z119" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA119" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC119" s="48"/>
-    </row>
-    <row r="120" spans="4:29">
+      <c r="Y119" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC119" s="41"/>
+    </row>
+    <row r="120" spans="4:30">
       <c r="D120" s="5"/>
       <c r="E120" s="4"/>
-      <c r="F120" s="57"/>
+      <c r="F120" s="46"/>
       <c r="W120" s="5"/>
       <c r="X120" s="4"/>
-      <c r="Y120" s="56"/>
-      <c r="Z120" s="48" t="s">
+      <c r="Z120" s="41" t="s">
         <v>26</v>
       </c>
       <c r="AA120" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="121" spans="4:29">
+        <v>138</v>
+      </c>
+      <c r="AC120" s="41"/>
+    </row>
+    <row r="121" spans="4:30">
       <c r="D121" s="5"/>
       <c r="E121" s="4"/>
-      <c r="F121" s="57"/>
+      <c r="F121" s="46"/>
       <c r="W121" s="5"/>
       <c r="X121" s="4"/>
-      <c r="Y121" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC121" s="48"/>
-    </row>
-    <row r="122" spans="4:29">
+      <c r="Z121" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA121" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="122" spans="4:30">
       <c r="D122" s="5"/>
       <c r="E122" s="4"/>
-      <c r="F122" s="57"/>
+      <c r="F122" s="46"/>
       <c r="W122" s="5"/>
       <c r="X122" s="4"/>
-      <c r="Y122" s="56"/>
-      <c r="AC122" s="48"/>
-    </row>
-    <row r="123" spans="4:29">
+      <c r="Y122" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC122" s="41"/>
+    </row>
+    <row r="123" spans="4:30">
       <c r="D123" s="5"/>
       <c r="E123" s="4"/>
-      <c r="W123" s="5" t="s">
-        <v>123</v>
-      </c>
+      <c r="F123" s="46"/>
+      <c r="W123" s="5"/>
       <c r="X123" s="4"/>
-    </row>
-    <row r="124" spans="4:29">
+      <c r="AC123" s="41"/>
+    </row>
+    <row r="124" spans="4:30">
       <c r="D124" s="5"/>
       <c r="E124" s="4"/>
-      <c r="W124" s="5"/>
+      <c r="W124" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="X124" s="4"/>
     </row>
-    <row r="125" spans="4:29">
-      <c r="D125" s="5" t="s">
-        <v>143</v>
-      </c>
+    <row r="125" spans="4:30">
+      <c r="D125" s="5"/>
       <c r="E125" s="4"/>
       <c r="W125" s="5"/>
       <c r="X125" s="4"/>
     </row>
-    <row r="126" spans="4:29">
-      <c r="E126" t="s">
+    <row r="126" spans="4:30">
+      <c r="D126" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E126" s="4"/>
+      <c r="W126" s="5"/>
+      <c r="X126" s="4"/>
+    </row>
+    <row r="127" spans="4:30">
+      <c r="E127" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="127" spans="4:29">
-      <c r="F127" s="61" t="s">
+    <row r="128" spans="4:30">
+      <c r="F128" s="48" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="128" spans="4:29">
-      <c r="G128" s="48" t="s">
+    <row r="129" spans="1:8">
+      <c r="G129" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H129" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
-      <c r="E129" t="s">
+    <row r="130" spans="1:8">
+      <c r="E130" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
-      <c r="F130" s="48" t="s">
+    <row r="131" spans="1:8">
+      <c r="F131" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G131" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
-      <c r="E131" t="s">
+    <row r="132" spans="1:8">
+      <c r="E132" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:7" s="64" customFormat="1" ht="19.5">
-      <c r="A133" s="62" t="s">
+    <row r="134" spans="1:8" s="51" customFormat="1" ht="19.5">
+      <c r="A134" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="B133" s="63" t="s">
+      <c r="B134" s="50" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
-      <c r="B135" t="s">
+    <row r="136" spans="1:8">
+      <c r="B136" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
-      <c r="B136" t="s">
+    <row r="137" spans="1:8">
+      <c r="B137" t="s">
         <v>142</v>
       </c>
     </row>
@@ -8153,9 +8426,6 @@
   <dimension ref="B2:AN82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
@@ -8171,12 +8441,12 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="19.5">
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="45" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="44" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8191,12 +8461,12 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="44" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="E12" s="54"/>
+      <c r="E12" s="44"/>
     </row>
     <row r="13" spans="2:8">
       <c r="F13" t="s">
@@ -8255,596 +8525,596 @@
       </c>
     </row>
     <row r="24" spans="5:26">
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="44" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="25" spans="5:26">
-      <c r="E25" s="54"/>
+      <c r="E25" s="44"/>
     </row>
     <row r="26" spans="5:26">
-      <c r="F26" s="50" t="s">
+      <c r="F26" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50" t="s">
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50" t="s">
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="50" t="s">
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="Z26" s="50"/>
+      <c r="Z26" s="64"/>
     </row>
     <row r="27" spans="5:26">
-      <c r="F27" s="51" t="s">
+      <c r="F27" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51" t="s">
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="52">
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="43">
         <v>1</v>
       </c>
-      <c r="U27" s="43" t="s">
+      <c r="U27" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="43">
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56">
         <v>1</v>
       </c>
-      <c r="Z27" s="43"/>
+      <c r="Z27" s="56"/>
     </row>
     <row r="28" spans="5:26">
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="52">
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="43">
         <v>0</v>
       </c>
-      <c r="U28" s="43" t="s">
+      <c r="U28" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="43"/>
-      <c r="W28" s="43"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="43">
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56">
         <v>1</v>
       </c>
-      <c r="Z28" s="43"/>
+      <c r="Z28" s="56"/>
     </row>
     <row r="29" spans="5:26">
-      <c r="F29" s="53" t="s">
+      <c r="F29" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53" t="s">
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="52">
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="43">
         <v>1</v>
       </c>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="43">
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56">
         <v>1</v>
       </c>
-      <c r="Z29" s="43"/>
+      <c r="Z29" s="56"/>
     </row>
     <row r="30" spans="5:26">
-      <c r="F30" s="53" t="s">
+      <c r="F30" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53" t="s">
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="52">
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="43">
         <v>1</v>
       </c>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="43">
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56">
         <v>1</v>
       </c>
-      <c r="Z30" s="43"/>
+      <c r="Z30" s="56"/>
     </row>
     <row r="31" spans="5:26">
-      <c r="F31" s="53" t="s">
+      <c r="F31" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53" t="s">
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="52">
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="43">
         <v>1</v>
       </c>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="43">
+      <c r="U31" s="56"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="56">
         <v>1</v>
       </c>
-      <c r="Z31" s="43"/>
+      <c r="Z31" s="56"/>
     </row>
     <row r="32" spans="5:26">
-      <c r="F32" s="53" t="s">
+      <c r="F32" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53" t="s">
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="52">
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="61"/>
+      <c r="T32" s="43">
         <v>1</v>
       </c>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="43"/>
-      <c r="Y32" s="43">
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56">
         <v>1</v>
       </c>
-      <c r="Z32" s="43"/>
+      <c r="Z32" s="56"/>
     </row>
     <row r="33" spans="4:26">
-      <c r="F33" s="53" t="s">
+      <c r="F33" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53" t="s">
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="52">
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="43">
         <v>1</v>
       </c>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="43"/>
-      <c r="X33" s="43"/>
-      <c r="Y33" s="43">
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56">
         <v>1</v>
       </c>
-      <c r="Z33" s="43"/>
+      <c r="Z33" s="56"/>
     </row>
     <row r="34" spans="4:26">
-      <c r="F34" s="53" t="s">
+      <c r="F34" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53" t="s">
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="52">
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="61"/>
+      <c r="T34" s="43">
         <v>1</v>
       </c>
-      <c r="U34" s="43"/>
-      <c r="V34" s="43"/>
-      <c r="W34" s="43"/>
-      <c r="X34" s="43"/>
-      <c r="Y34" s="43">
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56"/>
+      <c r="X34" s="56"/>
+      <c r="Y34" s="56">
         <v>1</v>
       </c>
-      <c r="Z34" s="43"/>
+      <c r="Z34" s="56"/>
     </row>
     <row r="35" spans="4:26">
-      <c r="F35" s="53" t="s">
+      <c r="F35" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53" t="s">
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="52">
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="61"/>
+      <c r="R35" s="61"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="43">
         <v>1</v>
       </c>
-      <c r="U35" s="43"/>
-      <c r="V35" s="43"/>
-      <c r="W35" s="43"/>
-      <c r="X35" s="43"/>
-      <c r="Y35" s="43">
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56">
         <v>1</v>
       </c>
-      <c r="Z35" s="43"/>
+      <c r="Z35" s="56"/>
     </row>
     <row r="36" spans="4:26">
-      <c r="F36" s="53" t="s">
+      <c r="F36" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53" t="s">
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="52">
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="43">
         <v>1</v>
       </c>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="43"/>
-      <c r="Y36" s="43">
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56"/>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="56">
         <v>1</v>
       </c>
-      <c r="Z36" s="43"/>
+      <c r="Z36" s="56"/>
     </row>
     <row r="37" spans="4:26">
-      <c r="F37" s="53" t="s">
+      <c r="F37" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53" t="s">
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="52">
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="43">
         <v>1</v>
       </c>
-      <c r="U37" s="43"/>
-      <c r="V37" s="43"/>
-      <c r="W37" s="43"/>
-      <c r="X37" s="43"/>
-      <c r="Y37" s="43">
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="56">
         <v>1</v>
       </c>
-      <c r="Z37" s="43"/>
+      <c r="Z37" s="56"/>
     </row>
     <row r="38" spans="4:26">
-      <c r="F38" s="53" t="s">
+      <c r="F38" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53" t="s">
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="52">
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
+      <c r="R38" s="61"/>
+      <c r="S38" s="61"/>
+      <c r="T38" s="43">
         <v>1</v>
       </c>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
-      <c r="X38" s="43"/>
-      <c r="Y38" s="43">
+      <c r="U38" s="56"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="56"/>
+      <c r="X38" s="56"/>
+      <c r="Y38" s="56">
         <v>1</v>
       </c>
-      <c r="Z38" s="43"/>
+      <c r="Z38" s="56"/>
     </row>
     <row r="39" spans="4:26">
-      <c r="F39" s="53" t="s">
+      <c r="F39" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53" t="s">
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="53"/>
-      <c r="T39" s="52">
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="61"/>
+      <c r="T39" s="43">
         <v>1</v>
       </c>
-      <c r="U39" s="43"/>
-      <c r="V39" s="43"/>
-      <c r="W39" s="43"/>
-      <c r="X39" s="43"/>
-      <c r="Y39" s="43">
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="56">
         <v>1</v>
       </c>
-      <c r="Z39" s="43"/>
+      <c r="Z39" s="56"/>
     </row>
     <row r="40" spans="4:26">
-      <c r="F40" s="53" t="s">
+      <c r="F40" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53" t="s">
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="53"/>
-      <c r="T40" s="52">
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="61"/>
+      <c r="S40" s="61"/>
+      <c r="T40" s="43">
         <v>1</v>
       </c>
-      <c r="U40" s="43"/>
-      <c r="V40" s="43"/>
-      <c r="W40" s="43"/>
-      <c r="X40" s="43"/>
-      <c r="Y40" s="43">
+      <c r="U40" s="56"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="56"/>
+      <c r="X40" s="56"/>
+      <c r="Y40" s="56">
         <v>1</v>
       </c>
-      <c r="Z40" s="43"/>
+      <c r="Z40" s="56"/>
     </row>
     <row r="41" spans="4:26">
-      <c r="F41" s="53" t="s">
+      <c r="F41" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53" t="s">
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="53"/>
-      <c r="T41" s="52">
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="61"/>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="61"/>
+      <c r="R41" s="61"/>
+      <c r="S41" s="61"/>
+      <c r="T41" s="43">
         <v>1</v>
       </c>
-      <c r="U41" s="43"/>
-      <c r="V41" s="43"/>
-      <c r="W41" s="43"/>
-      <c r="X41" s="43"/>
-      <c r="Y41" s="43">
+      <c r="U41" s="56"/>
+      <c r="V41" s="56"/>
+      <c r="W41" s="56"/>
+      <c r="X41" s="56"/>
+      <c r="Y41" s="56">
         <v>1</v>
       </c>
-      <c r="Z41" s="43"/>
+      <c r="Z41" s="56"/>
     </row>
     <row r="42" spans="4:26">
-      <c r="F42" s="53" t="s">
+      <c r="F42" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53" t="s">
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="53"/>
-      <c r="S42" s="53"/>
-      <c r="T42" s="52">
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="61"/>
+      <c r="O42" s="61"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="61"/>
+      <c r="R42" s="61"/>
+      <c r="S42" s="61"/>
+      <c r="T42" s="43">
         <v>1</v>
       </c>
-      <c r="U42" s="43"/>
-      <c r="V42" s="43"/>
-      <c r="W42" s="43"/>
-      <c r="X42" s="43"/>
-      <c r="Y42" s="43">
+      <c r="U42" s="56"/>
+      <c r="V42" s="56"/>
+      <c r="W42" s="56"/>
+      <c r="X42" s="56"/>
+      <c r="Y42" s="56">
         <v>1</v>
       </c>
-      <c r="Z42" s="43"/>
+      <c r="Z42" s="56"/>
     </row>
     <row r="43" spans="4:26">
-      <c r="F43" s="53" t="s">
+      <c r="F43" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53" t="s">
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="53"/>
-      <c r="T43" s="52">
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="61"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="61"/>
+      <c r="R43" s="61"/>
+      <c r="S43" s="61"/>
+      <c r="T43" s="43">
         <v>1</v>
       </c>
-      <c r="U43" s="43"/>
-      <c r="V43" s="43"/>
-      <c r="W43" s="43"/>
-      <c r="X43" s="43"/>
-      <c r="Y43" s="43">
+      <c r="U43" s="56"/>
+      <c r="V43" s="56"/>
+      <c r="W43" s="56"/>
+      <c r="X43" s="56"/>
+      <c r="Y43" s="56">
         <v>1</v>
       </c>
-      <c r="Z43" s="43"/>
+      <c r="Z43" s="56"/>
     </row>
     <row r="44" spans="4:26">
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="53"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="53"/>
-      <c r="T44" s="52"/>
-      <c r="U44" s="43"/>
-      <c r="V44" s="43"/>
-      <c r="W44" s="43"/>
-      <c r="X44" s="43"/>
-      <c r="Y44" s="43"/>
-      <c r="Z44" s="43"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="61"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="61"/>
+      <c r="R44" s="61"/>
+      <c r="S44" s="61"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="56"/>
+      <c r="V44" s="56"/>
+      <c r="W44" s="56"/>
+      <c r="X44" s="56"/>
+      <c r="Y44" s="56"/>
+      <c r="Z44" s="56"/>
     </row>
     <row r="46" spans="4:26">
-      <c r="D46" s="54" t="s">
+      <c r="D46" s="44" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8854,12 +9124,12 @@
       </c>
     </row>
     <row r="50" spans="5:18">
-      <c r="E50" s="54" t="s">
+      <c r="E50" s="44" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="51" spans="5:18">
-      <c r="E51" s="54"/>
+      <c r="E51" s="44"/>
     </row>
     <row r="52" spans="5:18">
       <c r="F52" t="s">
@@ -8885,7 +9155,7 @@
       <c r="I56" t="s">
         <v>28</v>
       </c>
-      <c r="M56" s="49" t="s">
+      <c r="M56" s="42" t="s">
         <v>72</v>
       </c>
       <c r="N56" t="s">
@@ -8903,7 +9173,7 @@
       </c>
     </row>
     <row r="59" spans="5:18">
-      <c r="G59" s="48" t="s">
+      <c r="G59" s="41" t="s">
         <v>97</v>
       </c>
       <c r="H59" t="s">
@@ -8914,7 +9184,7 @@
       <c r="I60" t="s">
         <v>99</v>
       </c>
-      <c r="M60" s="49" t="s">
+      <c r="M60" s="42" t="s">
         <v>72</v>
       </c>
       <c r="N60" t="s">
@@ -8922,8 +9192,8 @@
       </c>
     </row>
     <row r="61" spans="5:18">
-      <c r="H61" s="57"/>
-      <c r="K61" s="49"/>
+      <c r="H61" s="46"/>
+      <c r="K61" s="42"/>
       <c r="O61" t="s">
         <v>95</v>
       </c>
@@ -8935,8 +9205,8 @@
       </c>
     </row>
     <row r="62" spans="5:18">
-      <c r="K62" s="49"/>
-      <c r="N62" s="57" t="s">
+      <c r="K62" s="42"/>
+      <c r="N62" s="46" t="s">
         <v>97</v>
       </c>
       <c r="O62" t="s">
@@ -8950,7 +9220,7 @@
       </c>
     </row>
     <row r="63" spans="5:18">
-      <c r="K63" s="49"/>
+      <c r="K63" s="42"/>
       <c r="N63" t="s">
         <v>30</v>
       </c>
@@ -8981,7 +9251,7 @@
       </c>
     </row>
     <row r="70" spans="5:40">
-      <c r="E70" s="54" t="s">
+      <c r="E70" s="44" t="s">
         <v>78</v>
       </c>
     </row>
@@ -8996,550 +9266,440 @@
       </c>
     </row>
     <row r="74" spans="5:40">
-      <c r="F74" s="50" t="s">
+      <c r="F74" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="G74" s="50"/>
-      <c r="H74" s="50"/>
-      <c r="I74" s="50"/>
-      <c r="J74" s="50"/>
-      <c r="K74" s="50" t="s">
+      <c r="G74" s="64"/>
+      <c r="H74" s="64"/>
+      <c r="I74" s="64"/>
+      <c r="J74" s="64"/>
+      <c r="K74" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="L74" s="50"/>
-      <c r="M74" s="50"/>
-      <c r="N74" s="50"/>
-      <c r="O74" s="50"/>
-      <c r="P74" s="50"/>
-      <c r="Q74" s="50"/>
-      <c r="R74" s="50"/>
-      <c r="S74" s="50"/>
-      <c r="T74" s="50" t="s">
+      <c r="L74" s="64"/>
+      <c r="M74" s="64"/>
+      <c r="N74" s="64"/>
+      <c r="O74" s="64"/>
+      <c r="P74" s="64"/>
+      <c r="Q74" s="64"/>
+      <c r="R74" s="64"/>
+      <c r="S74" s="64"/>
+      <c r="T74" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="U74" s="50"/>
-      <c r="V74" s="50"/>
-      <c r="W74" s="50"/>
-      <c r="X74" s="50"/>
-      <c r="Y74" s="50" t="s">
+      <c r="U74" s="64"/>
+      <c r="V74" s="64"/>
+      <c r="W74" s="64"/>
+      <c r="X74" s="64"/>
+      <c r="Y74" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="Z74" s="50"/>
-      <c r="AA74" s="50" t="s">
+      <c r="Z74" s="64"/>
+      <c r="AA74" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="AB74" s="50"/>
-      <c r="AC74" s="50"/>
-      <c r="AD74" s="50"/>
-      <c r="AE74" s="50"/>
-      <c r="AF74" s="50"/>
-      <c r="AG74" s="50"/>
-      <c r="AH74" s="50" t="s">
+      <c r="AB74" s="64"/>
+      <c r="AC74" s="64"/>
+      <c r="AD74" s="64"/>
+      <c r="AE74" s="64"/>
+      <c r="AF74" s="64"/>
+      <c r="AG74" s="64"/>
+      <c r="AH74" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="AI74" s="50"/>
-      <c r="AJ74" s="50"/>
-      <c r="AK74" s="50"/>
-      <c r="AL74" s="50"/>
-      <c r="AM74" s="50"/>
-      <c r="AN74" s="50"/>
+      <c r="AI74" s="64"/>
+      <c r="AJ74" s="64"/>
+      <c r="AK74" s="64"/>
+      <c r="AL74" s="64"/>
+      <c r="AM74" s="64"/>
+      <c r="AN74" s="64"/>
     </row>
     <row r="75" spans="5:40">
-      <c r="F75" s="51" t="s">
+      <c r="F75" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="G75" s="51"/>
-      <c r="H75" s="51"/>
-      <c r="I75" s="51"/>
-      <c r="J75" s="51"/>
-      <c r="K75" s="51" t="s">
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="L75" s="51"/>
-      <c r="M75" s="51"/>
-      <c r="N75" s="51"/>
-      <c r="O75" s="51"/>
-      <c r="P75" s="51"/>
-      <c r="Q75" s="51"/>
-      <c r="R75" s="51"/>
-      <c r="S75" s="51"/>
-      <c r="T75" s="52">
+      <c r="L75" s="63"/>
+      <c r="M75" s="63"/>
+      <c r="N75" s="63"/>
+      <c r="O75" s="63"/>
+      <c r="P75" s="63"/>
+      <c r="Q75" s="63"/>
+      <c r="R75" s="63"/>
+      <c r="S75" s="63"/>
+      <c r="T75" s="43">
         <v>1</v>
       </c>
-      <c r="U75" s="43" t="s">
+      <c r="U75" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="V75" s="43"/>
-      <c r="W75" s="43"/>
-      <c r="X75" s="43"/>
-      <c r="Y75" s="43">
+      <c r="V75" s="56"/>
+      <c r="W75" s="56"/>
+      <c r="X75" s="56"/>
+      <c r="Y75" s="56">
         <v>1</v>
       </c>
-      <c r="Z75" s="43"/>
-      <c r="AA75" s="59" t="s">
+      <c r="Z75" s="56"/>
+      <c r="AA75" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="AB75" s="59"/>
-      <c r="AC75" s="59"/>
-      <c r="AD75" s="43" t="s">
+      <c r="AB75" s="62"/>
+      <c r="AC75" s="62"/>
+      <c r="AD75" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="AE75" s="43"/>
-      <c r="AF75" s="43"/>
-      <c r="AG75" s="43"/>
-      <c r="AH75" s="53" t="s">
+      <c r="AE75" s="56"/>
+      <c r="AF75" s="56"/>
+      <c r="AG75" s="56"/>
+      <c r="AH75" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="AI75" s="53"/>
-      <c r="AJ75" s="53"/>
-      <c r="AK75" s="53"/>
-      <c r="AL75" s="53"/>
-      <c r="AM75" s="53"/>
-      <c r="AN75" s="53"/>
+      <c r="AI75" s="61"/>
+      <c r="AJ75" s="61"/>
+      <c r="AK75" s="61"/>
+      <c r="AL75" s="61"/>
+      <c r="AM75" s="61"/>
+      <c r="AN75" s="61"/>
     </row>
     <row r="76" spans="5:40">
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="51"/>
-      <c r="J76" s="51"/>
-      <c r="K76" s="51"/>
-      <c r="L76" s="51"/>
-      <c r="M76" s="51"/>
-      <c r="N76" s="51"/>
-      <c r="O76" s="51"/>
-      <c r="P76" s="51"/>
-      <c r="Q76" s="51"/>
-      <c r="R76" s="51"/>
-      <c r="S76" s="51"/>
-      <c r="T76" s="52">
+      <c r="F76" s="63"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="63"/>
+      <c r="K76" s="63"/>
+      <c r="L76" s="63"/>
+      <c r="M76" s="63"/>
+      <c r="N76" s="63"/>
+      <c r="O76" s="63"/>
+      <c r="P76" s="63"/>
+      <c r="Q76" s="63"/>
+      <c r="R76" s="63"/>
+      <c r="S76" s="63"/>
+      <c r="T76" s="43">
         <v>0</v>
       </c>
-      <c r="U76" s="43" t="s">
+      <c r="U76" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="V76" s="43"/>
-      <c r="W76" s="43"/>
-      <c r="X76" s="43"/>
-      <c r="Y76" s="43">
+      <c r="V76" s="56"/>
+      <c r="W76" s="56"/>
+      <c r="X76" s="56"/>
+      <c r="Y76" s="56">
         <v>1</v>
       </c>
-      <c r="Z76" s="43"/>
-      <c r="AA76" s="59"/>
-      <c r="AB76" s="59"/>
-      <c r="AC76" s="59"/>
-      <c r="AD76" s="43"/>
-      <c r="AE76" s="43"/>
-      <c r="AF76" s="43"/>
-      <c r="AG76" s="43"/>
-      <c r="AH76" s="53"/>
-      <c r="AI76" s="53"/>
-      <c r="AJ76" s="53"/>
-      <c r="AK76" s="53"/>
-      <c r="AL76" s="53"/>
-      <c r="AM76" s="53"/>
-      <c r="AN76" s="53"/>
+      <c r="Z76" s="56"/>
+      <c r="AA76" s="62"/>
+      <c r="AB76" s="62"/>
+      <c r="AC76" s="62"/>
+      <c r="AD76" s="56"/>
+      <c r="AE76" s="56"/>
+      <c r="AF76" s="56"/>
+      <c r="AG76" s="56"/>
+      <c r="AH76" s="61"/>
+      <c r="AI76" s="61"/>
+      <c r="AJ76" s="61"/>
+      <c r="AK76" s="61"/>
+      <c r="AL76" s="61"/>
+      <c r="AM76" s="61"/>
+      <c r="AN76" s="61"/>
     </row>
     <row r="77" spans="5:40">
-      <c r="F77" s="51" t="s">
+      <c r="F77" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="G77" s="51"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="51"/>
-      <c r="J77" s="51"/>
-      <c r="K77" s="51" t="s">
+      <c r="G77" s="63"/>
+      <c r="H77" s="63"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="L77" s="51"/>
-      <c r="M77" s="51"/>
-      <c r="N77" s="51"/>
-      <c r="O77" s="51"/>
-      <c r="P77" s="51"/>
-      <c r="Q77" s="51"/>
-      <c r="R77" s="51"/>
-      <c r="S77" s="51"/>
-      <c r="T77" s="52">
+      <c r="L77" s="63"/>
+      <c r="M77" s="63"/>
+      <c r="N77" s="63"/>
+      <c r="O77" s="63"/>
+      <c r="P77" s="63"/>
+      <c r="Q77" s="63"/>
+      <c r="R77" s="63"/>
+      <c r="S77" s="63"/>
+      <c r="T77" s="43">
         <v>1</v>
       </c>
-      <c r="U77" s="43" t="s">
+      <c r="U77" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="V77" s="43"/>
-      <c r="W77" s="43"/>
-      <c r="X77" s="43"/>
-      <c r="Y77" s="43">
+      <c r="V77" s="56"/>
+      <c r="W77" s="56"/>
+      <c r="X77" s="56"/>
+      <c r="Y77" s="56">
         <v>1</v>
       </c>
-      <c r="Z77" s="43"/>
-      <c r="AA77" s="59" t="s">
+      <c r="Z77" s="56"/>
+      <c r="AA77" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="AB77" s="59"/>
-      <c r="AC77" s="59"/>
-      <c r="AD77" s="43" t="s">
+      <c r="AB77" s="62"/>
+      <c r="AC77" s="62"/>
+      <c r="AD77" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="AE77" s="43"/>
-      <c r="AF77" s="43"/>
-      <c r="AG77" s="43"/>
-      <c r="AH77" s="53" t="s">
+      <c r="AE77" s="56"/>
+      <c r="AF77" s="56"/>
+      <c r="AG77" s="56"/>
+      <c r="AH77" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="AI77" s="53"/>
-      <c r="AJ77" s="53"/>
-      <c r="AK77" s="53"/>
-      <c r="AL77" s="53"/>
-      <c r="AM77" s="53"/>
-      <c r="AN77" s="53"/>
+      <c r="AI77" s="61"/>
+      <c r="AJ77" s="61"/>
+      <c r="AK77" s="61"/>
+      <c r="AL77" s="61"/>
+      <c r="AM77" s="61"/>
+      <c r="AN77" s="61"/>
     </row>
     <row r="78" spans="5:40">
-      <c r="F78" s="51"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="51"/>
-      <c r="J78" s="51"/>
-      <c r="K78" s="51"/>
-      <c r="L78" s="51"/>
-      <c r="M78" s="51"/>
-      <c r="N78" s="51"/>
-      <c r="O78" s="51"/>
-      <c r="P78" s="51"/>
-      <c r="Q78" s="51"/>
-      <c r="R78" s="51"/>
-      <c r="S78" s="51"/>
-      <c r="T78" s="52">
+      <c r="F78" s="63"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="63"/>
+      <c r="K78" s="63"/>
+      <c r="L78" s="63"/>
+      <c r="M78" s="63"/>
+      <c r="N78" s="63"/>
+      <c r="O78" s="63"/>
+      <c r="P78" s="63"/>
+      <c r="Q78" s="63"/>
+      <c r="R78" s="63"/>
+      <c r="S78" s="63"/>
+      <c r="T78" s="43">
         <v>0</v>
       </c>
-      <c r="U78" s="43" t="s">
+      <c r="U78" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="V78" s="43"/>
-      <c r="W78" s="43"/>
-      <c r="X78" s="43"/>
-      <c r="Y78" s="43">
+      <c r="V78" s="56"/>
+      <c r="W78" s="56"/>
+      <c r="X78" s="56"/>
+      <c r="Y78" s="56">
         <v>1</v>
       </c>
-      <c r="Z78" s="43"/>
-      <c r="AA78" s="59"/>
-      <c r="AB78" s="59"/>
-      <c r="AC78" s="59"/>
-      <c r="AD78" s="43"/>
-      <c r="AE78" s="43"/>
-      <c r="AF78" s="43"/>
-      <c r="AG78" s="43"/>
-      <c r="AH78" s="53"/>
-      <c r="AI78" s="53"/>
-      <c r="AJ78" s="53"/>
-      <c r="AK78" s="53"/>
-      <c r="AL78" s="53"/>
-      <c r="AM78" s="53"/>
-      <c r="AN78" s="53"/>
+      <c r="Z78" s="56"/>
+      <c r="AA78" s="62"/>
+      <c r="AB78" s="62"/>
+      <c r="AC78" s="62"/>
+      <c r="AD78" s="56"/>
+      <c r="AE78" s="56"/>
+      <c r="AF78" s="56"/>
+      <c r="AG78" s="56"/>
+      <c r="AH78" s="61"/>
+      <c r="AI78" s="61"/>
+      <c r="AJ78" s="61"/>
+      <c r="AK78" s="61"/>
+      <c r="AL78" s="61"/>
+      <c r="AM78" s="61"/>
+      <c r="AN78" s="61"/>
     </row>
     <row r="79" spans="5:40" ht="18" customHeight="1">
-      <c r="F79" s="51" t="s">
+      <c r="F79" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="G79" s="51"/>
-      <c r="H79" s="51"/>
-      <c r="I79" s="51"/>
-      <c r="J79" s="51"/>
-      <c r="K79" s="51" t="s">
+      <c r="G79" s="63"/>
+      <c r="H79" s="63"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="63"/>
+      <c r="K79" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="L79" s="51"/>
-      <c r="M79" s="51"/>
-      <c r="N79" s="51"/>
-      <c r="O79" s="51"/>
-      <c r="P79" s="51"/>
-      <c r="Q79" s="51"/>
-      <c r="R79" s="51"/>
-      <c r="S79" s="51"/>
-      <c r="T79" s="52">
+      <c r="L79" s="63"/>
+      <c r="M79" s="63"/>
+      <c r="N79" s="63"/>
+      <c r="O79" s="63"/>
+      <c r="P79" s="63"/>
+      <c r="Q79" s="63"/>
+      <c r="R79" s="63"/>
+      <c r="S79" s="63"/>
+      <c r="T79" s="43">
         <v>1</v>
       </c>
-      <c r="U79" s="43" t="s">
+      <c r="U79" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="V79" s="43"/>
-      <c r="W79" s="43"/>
-      <c r="X79" s="43"/>
-      <c r="Y79" s="43">
+      <c r="V79" s="56"/>
+      <c r="W79" s="56"/>
+      <c r="X79" s="56"/>
+      <c r="Y79" s="56">
         <v>1</v>
       </c>
-      <c r="Z79" s="43"/>
-      <c r="AA79" s="59" t="s">
+      <c r="Z79" s="56"/>
+      <c r="AA79" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="AB79" s="59"/>
-      <c r="AC79" s="59"/>
-      <c r="AD79" s="43" t="s">
+      <c r="AB79" s="62"/>
+      <c r="AC79" s="62"/>
+      <c r="AD79" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="AE79" s="43"/>
-      <c r="AF79" s="43"/>
-      <c r="AG79" s="43"/>
-      <c r="AH79" s="53" t="s">
+      <c r="AE79" s="56"/>
+      <c r="AF79" s="56"/>
+      <c r="AG79" s="56"/>
+      <c r="AH79" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="AI79" s="53"/>
-      <c r="AJ79" s="53"/>
-      <c r="AK79" s="53"/>
-      <c r="AL79" s="53"/>
-      <c r="AM79" s="53"/>
-      <c r="AN79" s="53"/>
+      <c r="AI79" s="61"/>
+      <c r="AJ79" s="61"/>
+      <c r="AK79" s="61"/>
+      <c r="AL79" s="61"/>
+      <c r="AM79" s="61"/>
+      <c r="AN79" s="61"/>
     </row>
     <row r="80" spans="5:40">
-      <c r="F80" s="51"/>
-      <c r="G80" s="51"/>
-      <c r="H80" s="51"/>
-      <c r="I80" s="51"/>
-      <c r="J80" s="51"/>
-      <c r="K80" s="51"/>
-      <c r="L80" s="51"/>
-      <c r="M80" s="51"/>
-      <c r="N80" s="51"/>
-      <c r="O80" s="51"/>
-      <c r="P80" s="51"/>
-      <c r="Q80" s="51"/>
-      <c r="R80" s="51"/>
-      <c r="S80" s="51"/>
-      <c r="T80" s="52">
+      <c r="F80" s="63"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="63"/>
+      <c r="K80" s="63"/>
+      <c r="L80" s="63"/>
+      <c r="M80" s="63"/>
+      <c r="N80" s="63"/>
+      <c r="O80" s="63"/>
+      <c r="P80" s="63"/>
+      <c r="Q80" s="63"/>
+      <c r="R80" s="63"/>
+      <c r="S80" s="63"/>
+      <c r="T80" s="43">
         <v>0</v>
       </c>
-      <c r="U80" s="43" t="s">
+      <c r="U80" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="V80" s="43"/>
-      <c r="W80" s="43"/>
-      <c r="X80" s="43"/>
-      <c r="Y80" s="43">
+      <c r="V80" s="56"/>
+      <c r="W80" s="56"/>
+      <c r="X80" s="56"/>
+      <c r="Y80" s="56">
         <v>1</v>
       </c>
-      <c r="Z80" s="43"/>
-      <c r="AA80" s="59"/>
-      <c r="AB80" s="59"/>
-      <c r="AC80" s="59"/>
-      <c r="AD80" s="43"/>
-      <c r="AE80" s="43"/>
-      <c r="AF80" s="43"/>
-      <c r="AG80" s="43"/>
-      <c r="AH80" s="53"/>
-      <c r="AI80" s="53"/>
-      <c r="AJ80" s="53"/>
-      <c r="AK80" s="53"/>
-      <c r="AL80" s="53"/>
-      <c r="AM80" s="53"/>
-      <c r="AN80" s="53"/>
+      <c r="Z80" s="56"/>
+      <c r="AA80" s="62"/>
+      <c r="AB80" s="62"/>
+      <c r="AC80" s="62"/>
+      <c r="AD80" s="56"/>
+      <c r="AE80" s="56"/>
+      <c r="AF80" s="56"/>
+      <c r="AG80" s="56"/>
+      <c r="AH80" s="61"/>
+      <c r="AI80" s="61"/>
+      <c r="AJ80" s="61"/>
+      <c r="AK80" s="61"/>
+      <c r="AL80" s="61"/>
+      <c r="AM80" s="61"/>
+      <c r="AN80" s="61"/>
     </row>
     <row r="81" spans="6:40" ht="18" customHeight="1">
-      <c r="F81" s="51" t="s">
+      <c r="F81" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="G81" s="51"/>
-      <c r="H81" s="51"/>
-      <c r="I81" s="51"/>
-      <c r="J81" s="51"/>
-      <c r="K81" s="51" t="s">
+      <c r="G81" s="63"/>
+      <c r="H81" s="63"/>
+      <c r="I81" s="63"/>
+      <c r="J81" s="63"/>
+      <c r="K81" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="L81" s="51"/>
-      <c r="M81" s="51"/>
-      <c r="N81" s="51"/>
-      <c r="O81" s="51"/>
-      <c r="P81" s="51"/>
-      <c r="Q81" s="51"/>
-      <c r="R81" s="51"/>
-      <c r="S81" s="51"/>
-      <c r="T81" s="52">
+      <c r="L81" s="63"/>
+      <c r="M81" s="63"/>
+      <c r="N81" s="63"/>
+      <c r="O81" s="63"/>
+      <c r="P81" s="63"/>
+      <c r="Q81" s="63"/>
+      <c r="R81" s="63"/>
+      <c r="S81" s="63"/>
+      <c r="T81" s="43">
         <v>1</v>
       </c>
-      <c r="U81" s="43" t="s">
+      <c r="U81" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="V81" s="43"/>
-      <c r="W81" s="43"/>
-      <c r="X81" s="43"/>
-      <c r="Y81" s="43">
+      <c r="V81" s="56"/>
+      <c r="W81" s="56"/>
+      <c r="X81" s="56"/>
+      <c r="Y81" s="56">
         <v>1</v>
       </c>
-      <c r="Z81" s="43"/>
-      <c r="AA81" s="59" t="s">
+      <c r="Z81" s="56"/>
+      <c r="AA81" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="AB81" s="59"/>
-      <c r="AC81" s="59"/>
-      <c r="AD81" s="43" t="s">
+      <c r="AB81" s="62"/>
+      <c r="AC81" s="62"/>
+      <c r="AD81" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="AE81" s="43"/>
-      <c r="AF81" s="43"/>
-      <c r="AG81" s="43"/>
-      <c r="AH81" s="53" t="s">
+      <c r="AE81" s="56"/>
+      <c r="AF81" s="56"/>
+      <c r="AG81" s="56"/>
+      <c r="AH81" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="AI81" s="53"/>
-      <c r="AJ81" s="53"/>
-      <c r="AK81" s="53"/>
-      <c r="AL81" s="53"/>
-      <c r="AM81" s="53"/>
-      <c r="AN81" s="53"/>
+      <c r="AI81" s="61"/>
+      <c r="AJ81" s="61"/>
+      <c r="AK81" s="61"/>
+      <c r="AL81" s="61"/>
+      <c r="AM81" s="61"/>
+      <c r="AN81" s="61"/>
     </row>
     <row r="82" spans="6:40">
-      <c r="F82" s="51"/>
-      <c r="G82" s="51"/>
-      <c r="H82" s="51"/>
-      <c r="I82" s="51"/>
-      <c r="J82" s="51"/>
-      <c r="K82" s="51"/>
-      <c r="L82" s="51"/>
-      <c r="M82" s="51"/>
-      <c r="N82" s="51"/>
-      <c r="O82" s="51"/>
-      <c r="P82" s="51"/>
-      <c r="Q82" s="51"/>
-      <c r="R82" s="51"/>
-      <c r="S82" s="51"/>
-      <c r="T82" s="52">
+      <c r="F82" s="63"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="63"/>
+      <c r="K82" s="63"/>
+      <c r="L82" s="63"/>
+      <c r="M82" s="63"/>
+      <c r="N82" s="63"/>
+      <c r="O82" s="63"/>
+      <c r="P82" s="63"/>
+      <c r="Q82" s="63"/>
+      <c r="R82" s="63"/>
+      <c r="S82" s="63"/>
+      <c r="T82" s="43">
         <v>0</v>
       </c>
-      <c r="U82" s="43" t="s">
+      <c r="U82" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="V82" s="43"/>
-      <c r="W82" s="43"/>
-      <c r="X82" s="43"/>
-      <c r="Y82" s="43">
+      <c r="V82" s="56"/>
+      <c r="W82" s="56"/>
+      <c r="X82" s="56"/>
+      <c r="Y82" s="56">
         <v>1</v>
       </c>
-      <c r="Z82" s="43"/>
-      <c r="AA82" s="59"/>
-      <c r="AB82" s="59"/>
-      <c r="AC82" s="59"/>
-      <c r="AD82" s="43"/>
-      <c r="AE82" s="43"/>
-      <c r="AF82" s="43"/>
-      <c r="AG82" s="43"/>
-      <c r="AH82" s="53"/>
-      <c r="AI82" s="53"/>
-      <c r="AJ82" s="53"/>
-      <c r="AK82" s="53"/>
-      <c r="AL82" s="53"/>
-      <c r="AM82" s="53"/>
-      <c r="AN82" s="53"/>
+      <c r="Z82" s="56"/>
+      <c r="AA82" s="62"/>
+      <c r="AB82" s="62"/>
+      <c r="AC82" s="62"/>
+      <c r="AD82" s="56"/>
+      <c r="AE82" s="56"/>
+      <c r="AF82" s="56"/>
+      <c r="AG82" s="56"/>
+      <c r="AH82" s="61"/>
+      <c r="AI82" s="61"/>
+      <c r="AJ82" s="61"/>
+      <c r="AK82" s="61"/>
+      <c r="AL82" s="61"/>
+      <c r="AM82" s="61"/>
+      <c r="AN82" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="128">
-    <mergeCell ref="AH81:AN81"/>
-    <mergeCell ref="U82:X82"/>
-    <mergeCell ref="Y82:Z82"/>
-    <mergeCell ref="AA82:AC82"/>
-    <mergeCell ref="AD82:AG82"/>
-    <mergeCell ref="AH82:AN82"/>
-    <mergeCell ref="F81:J82"/>
-    <mergeCell ref="K81:S82"/>
-    <mergeCell ref="U81:X81"/>
-    <mergeCell ref="Y81:Z81"/>
-    <mergeCell ref="AA81:AC81"/>
-    <mergeCell ref="AD81:AG81"/>
-    <mergeCell ref="AH79:AN79"/>
-    <mergeCell ref="U80:X80"/>
-    <mergeCell ref="Y80:Z80"/>
-    <mergeCell ref="AA80:AC80"/>
-    <mergeCell ref="AD80:AG80"/>
-    <mergeCell ref="AH80:AN80"/>
-    <mergeCell ref="F79:J80"/>
-    <mergeCell ref="K79:S80"/>
-    <mergeCell ref="U79:X79"/>
-    <mergeCell ref="Y79:Z79"/>
-    <mergeCell ref="AA79:AC79"/>
-    <mergeCell ref="AD79:AG79"/>
-    <mergeCell ref="AH77:AN77"/>
-    <mergeCell ref="U78:X78"/>
-    <mergeCell ref="Y78:Z78"/>
-    <mergeCell ref="AA78:AC78"/>
-    <mergeCell ref="AD78:AG78"/>
-    <mergeCell ref="AH78:AN78"/>
-    <mergeCell ref="F77:J78"/>
-    <mergeCell ref="K77:S78"/>
-    <mergeCell ref="U77:X77"/>
-    <mergeCell ref="Y77:Z77"/>
-    <mergeCell ref="AA77:AC77"/>
-    <mergeCell ref="AD77:AG77"/>
-    <mergeCell ref="AH75:AN75"/>
-    <mergeCell ref="U76:X76"/>
-    <mergeCell ref="Y76:Z76"/>
-    <mergeCell ref="AA76:AC76"/>
-    <mergeCell ref="AD76:AG76"/>
-    <mergeCell ref="AH76:AN76"/>
-    <mergeCell ref="F75:J76"/>
-    <mergeCell ref="K75:S76"/>
-    <mergeCell ref="U75:X75"/>
-    <mergeCell ref="Y75:Z75"/>
-    <mergeCell ref="AA75:AC75"/>
-    <mergeCell ref="AD75:AG75"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="K74:S74"/>
-    <mergeCell ref="T74:X74"/>
-    <mergeCell ref="Y74:Z74"/>
-    <mergeCell ref="AA74:AG74"/>
-    <mergeCell ref="AH74:AN74"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="K43:S43"/>
-    <mergeCell ref="U43:X43"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="K44:S44"/>
-    <mergeCell ref="U44:X44"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="K41:S41"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="K42:S42"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="K39:S39"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="K40:S40"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="K37:S37"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="K38:S38"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="K35:S35"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="K36:S36"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="K33:S33"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="K34:S34"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="K31:S31"/>
-    <mergeCell ref="U31:X31"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="K32:S32"/>
-    <mergeCell ref="U32:X32"/>
-    <mergeCell ref="Y32:Z32"/>
     <mergeCell ref="F29:J29"/>
     <mergeCell ref="K29:S29"/>
     <mergeCell ref="U29:X29"/>
@@ -9558,6 +9718,116 @@
     <mergeCell ref="Y27:Z27"/>
     <mergeCell ref="U28:X28"/>
     <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="K33:S33"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="K34:S34"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="K31:S31"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="K32:S32"/>
+    <mergeCell ref="U32:X32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="K37:S37"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="K38:S38"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="K35:S35"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="K36:S36"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="K41:S41"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="K42:S42"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="K39:S39"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="K40:S40"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="K74:S74"/>
+    <mergeCell ref="T74:X74"/>
+    <mergeCell ref="Y74:Z74"/>
+    <mergeCell ref="AA74:AG74"/>
+    <mergeCell ref="AH74:AN74"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="K43:S43"/>
+    <mergeCell ref="U43:X43"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="K44:S44"/>
+    <mergeCell ref="U44:X44"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="AH75:AN75"/>
+    <mergeCell ref="U76:X76"/>
+    <mergeCell ref="Y76:Z76"/>
+    <mergeCell ref="AA76:AC76"/>
+    <mergeCell ref="AD76:AG76"/>
+    <mergeCell ref="AH76:AN76"/>
+    <mergeCell ref="F75:J76"/>
+    <mergeCell ref="K75:S76"/>
+    <mergeCell ref="U75:X75"/>
+    <mergeCell ref="Y75:Z75"/>
+    <mergeCell ref="AA75:AC75"/>
+    <mergeCell ref="AD75:AG75"/>
+    <mergeCell ref="AH77:AN77"/>
+    <mergeCell ref="U78:X78"/>
+    <mergeCell ref="Y78:Z78"/>
+    <mergeCell ref="AA78:AC78"/>
+    <mergeCell ref="AD78:AG78"/>
+    <mergeCell ref="AH78:AN78"/>
+    <mergeCell ref="F77:J78"/>
+    <mergeCell ref="K77:S78"/>
+    <mergeCell ref="U77:X77"/>
+    <mergeCell ref="Y77:Z77"/>
+    <mergeCell ref="AA77:AC77"/>
+    <mergeCell ref="AD77:AG77"/>
+    <mergeCell ref="AH79:AN79"/>
+    <mergeCell ref="U80:X80"/>
+    <mergeCell ref="Y80:Z80"/>
+    <mergeCell ref="AA80:AC80"/>
+    <mergeCell ref="AD80:AG80"/>
+    <mergeCell ref="AH80:AN80"/>
+    <mergeCell ref="F79:J80"/>
+    <mergeCell ref="K79:S80"/>
+    <mergeCell ref="U79:X79"/>
+    <mergeCell ref="Y79:Z79"/>
+    <mergeCell ref="AA79:AC79"/>
+    <mergeCell ref="AD79:AG79"/>
+    <mergeCell ref="AH81:AN81"/>
+    <mergeCell ref="U82:X82"/>
+    <mergeCell ref="Y82:Z82"/>
+    <mergeCell ref="AA82:AC82"/>
+    <mergeCell ref="AD82:AG82"/>
+    <mergeCell ref="AH82:AN82"/>
+    <mergeCell ref="F81:J82"/>
+    <mergeCell ref="K81:S82"/>
+    <mergeCell ref="U81:X81"/>
+    <mergeCell ref="Y81:Z81"/>
+    <mergeCell ref="AA81:AC81"/>
+    <mergeCell ref="AD81:AG81"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
